--- a/DOM_Banner/output/dept0723/Debra Stern_2022.xlsx
+++ b/DOM_Banner/output/dept0723/Debra Stern_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Environmental Health, Harvard T.H. Chan School of Public Health, Boston, Massachusetts; Department of Pediatrics, University of Cincinnati, College of Medicine, Cincinnati, Ohio; Division of Biostatistics and Epidemiology, Cincinnati Children’s Hospital Medical Center, Cincinnati, Ohio; Department of Biostatistics, Harvard T.H. Chan School of Public Health, Boston, Massachusetts; Department of Pediatrics, University of Cincinnati, College of Medicine, Cincinnati, Ohio; Division of Biostatistics and Epidemiology, Cincinnati Children’s Hospital Medical Center, Cincinnati, Ohio; Channing Division of Network Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts; Center for Geographic Analysis, Harvard University, Cambridge, Massachusetts; Asthma and Airways Disease Research Center, University of Arizona, Tucson; Division of Clinical Immunology, Icahn School of Medicine at Mount Sinai, New York, New York; Asthma and Airways Disease Research Center, University of Arizona, Tucson; Rho, Inc, Chapel Hill, North Carolina; Department of Biostatistics, Mailman School of Public Health, Columbia University, New York, New York; Division of Pediatric Allergy, Immunology, and Pulmonary Medicine, Monroe Carell Jr Children’s Hospital at Vanderbilt, Nashville, Tennessee; Division of Allergy, Pulmonary, and Critical Care Medicine, Vanderbilt University School of Medicine, Nashville, Tennessee; Department of Public Health Sciences, Henry Ford Health System, Detroit, Michigan; Division of Allergy and Immunology, Augusta University, Augusta, Georgia; Cincinnati Children’s Hospital, Division of Asthma Research, Cincinnati, Ohio; Department of Public Health Sciences, Henry Ford Health System, Detroit, Michigan; Indiana University School of Medicine, Bloomington; Department of Pediatrics, Indiana University, Bloomington; Department of Pediatrics, University of Wisconsin School of Medicine and Public Health, Madison; Department of Environmental Health, Harvard T.H. Chan School of Public Health, Boston, Massachusetts; Department of Medicine, Henry Ford Health System, Detroit, Michigan; Asthma and Airways Disease Research Center, University of Arizona, Tucson; Asthma and Airways Disease Research Center, University of Arizona, Tucson; Department of Pediatrics, University of Wisconsin School of Medicine and Public Health, Madison; Department of Medicine, Henry Ford Health System, Detroit, Michigan; Channing Division of Network Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts; Department of Environmental Health, Harvard T.H. Chan School of Public Health, Boston, Massachusetts; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium; for the Children’s Respiratory and Environmental Workgroup (CREW) Consortium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281399843</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Childhood Asthma Incidence, Early and Persistent Wheeze, and Neighborhood Socioeconomic Factors in the ECHO/CREW Consortium</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>JAMA Pediatrics</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Medical Association</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamapediatrics.2022.1446</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35604671</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamapediatrics.2022.1446</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA.; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; Department of Clinical Sciences and Education Södersjukhuset, Karolinska Institutet, Stockholm, Sweden; Sachs' Children and Youth Hospital, Stockholm, Sweden; Department of Clinical Sciences and Education Södersjukhuset, Karolinska Institutet, Stockholm, Sweden; Sachs' Children and Youth Hospital, Stockholm, Sweden; Institute of Environmental Medicine, Karolinska Institutet, Stockholm, Sweden; Division of Infection, Immunity and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, UK; Manchester Academic Health Science Centre and NIHR Biomedical Research Centre, Manchester University Hospitals NHS Foundation Trust, Manchester, UK; Division of Infection, Immunity and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, UK; Manchester Academic Health Science Centre and NIHR Biomedical Research Centre, Manchester University Hospitals NHS Foundation Trust, Manchester, UK; Section of Paediatrics, National Heart and Lung Institute, Imperial College London, London, UK; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; Department of Clinical Sciences and Education Södersjukhuset, Karolinska Institutet, Stockholm, Sweden; Sachs' Children and Youth Hospital, Stockholm, Sweden; Division of Infection, Immunity and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, UK; Manchester Academic Health Science Centre and NIHR Biomedical Research Centre, Manchester University Hospitals NHS Foundation Trust, Manchester, UK; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; ISGlobal, Barcelona Institute for Global Health, Barcelona, Spain</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3217170501</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>The role of growth and nutrition in the early origins of spirometric restriction in adult life: a longitudinal, multicohort, population-based study</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The Lancet Respiratory Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2213-2600(21)00355-6</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34843665</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2213-2600(21)00355-6</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, The University of Arizona, Tucson, Arizona, USA; Benioff Center for Microbiome Medicine, University of California San Francisco, San Francisco, California, USA; Department of Medicine, University of California San Francisco, San Francisco, California, USA; Department of Medicine, University of California San Francisco, San Francisco, California, USA; Genetic Disease Lab, California Department of Public Health, Richmond, California, USA; Asthma and Airway Disease Research Center, The University of Arizona, Tucson, Arizona, USA; Benioff Center for Microbiome Medicine, University of California San Francisco, San Francisco, California, USA; Department of Medicine, University of California San Francisco, San Francisco, California, USA; Asthma and Airway Disease Research Center, The University of Arizona, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285588470</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Maternal prenatal immunity, neonatal trained immunity, and early airway microbiota shape childhood asthma development</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-07-25</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Allergy</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/all.15442</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35841380</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/all.15442</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz.; University of Bristol, Avon, United Kingdom; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz; University of Bristol, Avon, United Kingdom; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3206478864</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>High Insulin in Early Childhood Is Associated with Subsequent Asthma Risk Independent of Body Mass Index</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>The Journal of Allergy and Clinical Immunology: In Practice</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaip.2021.09.047</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34656798</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaip.2021.09.047</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221095497</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Club cell secretory protein and lung function in children with cystic fibrosis</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of Cystic Fibrosis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jcf.2022.03.007</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35367162</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jcf.2022.03.007</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Asthma/Airway Disease Research Center, Tucson, Ariz; College of Medicine, Tucson, Ariz; Department of Otolaryngology, Tucson, Ariz; University of Arizona BIO5 Institute, University of Arizona, Tucson, Ariz; Department of Biomedical Informatics, the University of Utah School of Medicine, Salt Lake City, Utah; Asthma/Airway Disease Research Center, Tucson, Ariz; College of Medicine, Tucson, Ariz; University of Arizona BIO5 Institute, University of Arizona, Tucson, Ariz; Department of Otolaryngology, Tucson, Ariz; Department of Otolaryngology, Tucson, Ariz; University of Arizona BIO5 Institute, University of Arizona, Tucson, Ariz; Department of Biomedical Informatics, the University of Utah School of Medicine, Salt Lake City, Utah; Asthma/Airway Disease Research Center, Tucson, Ariz; College of Medicine, Tucson, Ariz; University of Arizona BIO5 Institute, University of Arizona, Tucson, Ariz; Asthma/Airway Disease Research Center, Tucson, Ariz; College of Medicine, Tucson, Ariz; University of Arizona BIO5 Institute, University of Arizona, Tucson, Ariz; Department of Otolaryngology, Tucson, Ariz; Department of Biomedical Informatics, the University of Utah School of Medicine, Salt Lake City, Utah; Asthma/Airway Disease Research Center, Tucson, Ariz; College of Medicine, Tucson, Ariz; University of Arizona BIO5 Institute, University of Arizona, Tucson, Ariz</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225253433</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Epithelial cell responses to rhinovirus identify an early-life–onset asthma phenotype in adults</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of Allergy and Clinical Immunology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2022.03.020</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>acceptedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35367470</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2022.03.020</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Utah School of Medicine; University of Arizona; University of Arizona; University of Arizona; University of Utah School of Medicine; University of Arizona</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210663492</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Epithelial cell responses to rhinovirus identify an early-life-onset asthma phenotype in adults</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Journal of Allergy and Clinical Immunology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2021.12.731</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2021.12.731</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0723/Debra Stern_2022.xlsx
+++ b/DOM_Banner/output/dept0723/Debra Stern_2022.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tara F. Carr, Raquel Granell, Debra A. Stern, Stefano Guerra, Anne L. Wright, Marilyn Halonen, John Henderson, Fernando D. Martínez</t>
+          <t>Tara Carr, Raquel Granell, Debra A. Stern, Stefano Guerra, Anne L. Wright, Marilyn Halonen, John Henderson, Fernando D. Martínez</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Eugene H. Chang, Nima Pouladi, Stefano Guerra, Jana Jandova, Alexander Kim, LI Hai-quan, Jiànróng Lǐ, Wayne J. Morgan, Debra A. Stern, Amanda L. Willis, Yves A. Lussier, Fernando D. Martínez</t>
+          <t>Eugene H. Chang, Nima Pouladi, Stefano Guerra, Jana Jandova, Alexander Kim, Haiquan Li, Jiànróng Lǐ, Wayne J. Morgan, Debra A. Stern, Amanda L. Willis, Yves A. Lussier, Fernando D. Martínez</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
